--- a/Pyro C++ Textbook.xlsx
+++ b/Pyro C++ Textbook.xlsx
@@ -34,11 +34,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="435">
   <si>
     <t>Author Name</t>
   </si>
   <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
     <t>Editor Name</t>
   </si>
   <si>
@@ -51,6 +54,27 @@
     <t>Correct Answer (if applicable)</t>
   </si>
   <si>
+    <t>Type of Question</t>
+  </si>
+  <si>
+    <t>Text that will appear to students</t>
+  </si>
+  <si>
+    <t>Correct Answer</t>
+  </si>
+  <si>
+    <t>Which Chapter is this Question For?</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>Edited Version</t>
+  </si>
+  <si>
     <t>Bill Kerney</t>
   </si>
   <si>
@@ -58,30 +82,6 @@
   </si>
   <si>
     <t>#include &lt;iostream&gt;</t>
-  </si>
-  <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>Type of Question</t>
-  </si>
-  <si>
-    <t>Text that will appear to students</t>
-  </si>
-  <si>
-    <t>Correct Answer</t>
-  </si>
-  <si>
-    <t>Which Chapter is this Question For?</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Solution</t>
-  </si>
-  <si>
-    <t>Edited Version</t>
   </si>
   <si>
     <t>Yinghao Wang</t>
@@ -4593,6 +4593,37 @@
   <si>
     <t>Modify this code involving a vector.</t>
   </si>
+  <si>
+    <t>#include &lt;iostream&gt;
+using namespace std;
+int main() {
+    // Want to read a word from the keyboard?
+    // Use a `cin` statement to read into a variable!
+    string name;
+    cin &gt;&gt; name;
+    cout &lt;&lt; "Hello " &lt;&lt; name &lt;&lt; "!" &lt;&lt; endl;
+    return 0;
+}</t>
+  </si>
+  <si>
+    <t>How to use `cin`.</t>
+  </si>
+  <si>
+    <t>#include &lt;iostream&gt;
+using namespace std;
+int main() {
+    // A limitation of `cin` is that it can only read one word.
+    // In other words, it stops reading once it sees a space.
+    // To get around this, use `getline`!
+    string message;
+    getline(cin, message);
+    cout &lt;&lt; "You said: " &lt;&lt; message &lt;&lt; endl;
+    return 0;
+}</t>
+  </si>
+  <si>
+    <t>Using `getline` instead of `cin`.</t>
+  </si>
 </sst>
 </file>
 
@@ -4643,14 +4674,14 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4706,3050 +4737,3050 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>42914.782839039355</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>42914.79389611111</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>42914.799057048614</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>42915.51365122685</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>42915.519521215276</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>42915.52353796296</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>42915.53183070602</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>42915.53461552083</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>42915.62565392361</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>42915.63454695602</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>42915.63720744213</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>42915.63881364583</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>53</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>42915.64110253472</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>42915.64241479167</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>42915.64437498843</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H16" s="6"/>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>42915.64698226852</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H17" s="6"/>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>42915.653848587965</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>42915.65840153935</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>42915.660946840275</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>67</v>
       </c>
       <c r="H20" s="6"/>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>42915.6665603125</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H21" s="6"/>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>42915.667898761574</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="2" t="s">
         <v>53</v>
       </c>
       <c r="H22" s="6"/>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>42915.674437442125</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H23" s="6"/>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>42915.68034604167</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="C24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="2" t="s">
         <v>76</v>
       </c>
       <c r="H24" s="6"/>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>42915.75528625</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="C25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H25" s="6"/>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>42915.77224331019</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="C26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H26" s="6"/>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>42915.91612388889</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="C27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H27" s="6"/>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>42915.92045269676</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H28" s="6"/>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>42915.92154946759</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H29" s="6"/>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>42915.92252209491</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H30" s="6"/>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>42915.92309648148</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H31" s="6"/>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>42915.923712916665</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H32" s="6"/>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>42915.92532646991</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H33" s="6"/>
-      <c r="J33" s="3" t="s">
+      <c r="J33" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <v>42915.92602318287</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H34" s="6"/>
-      <c r="J34" s="3" t="s">
+      <c r="J34" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>42916.69098484954</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="C35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="2" t="s">
         <v>53</v>
       </c>
       <c r="H35" s="6"/>
-      <c r="J35" s="3" t="s">
+      <c r="J35" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>42916.6941390625</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="C36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="2" t="s">
         <v>67</v>
       </c>
       <c r="H36" s="6"/>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5">
+      <c r="A37" s="4">
         <v>42916.69924181713</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="C37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H37" s="6"/>
-      <c r="J37" s="3" t="s">
+      <c r="J37" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5">
+      <c r="A38" s="4">
         <v>42916.78234853009</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="C38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="J38" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5">
+      <c r="A39" s="4">
         <v>42916.83751452546</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="3" t="s">
+      <c r="C39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="J39" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5">
+      <c r="A40" s="4">
         <v>42916.861469247684</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="3" t="s">
+      <c r="C40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="J40" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5">
+      <c r="A41" s="4">
         <v>42917.75682001158</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="J41" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5">
+      <c r="A42" s="4">
         <v>42917.75924414352</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="C42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="J42" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5">
+      <c r="A43" s="4">
         <v>42917.76741306713</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="3" t="s">
+      <c r="C43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J43" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="5">
+      <c r="A44" s="4">
         <v>42917.80139766204</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="3" t="s">
+      <c r="C44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G44" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="I44" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J44" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="5">
+      <c r="A45" s="4">
         <v>42917.82120740741</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="3" t="s">
+      <c r="C45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I45" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="J45" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5">
+      <c r="A46" s="4">
         <v>42917.86780396991</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="C46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G46" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="J46" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5">
+      <c r="A47" s="4">
         <v>42918.708996643516</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="3" t="s">
+      <c r="C47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="J47" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5">
+      <c r="A48" s="4">
         <v>42918.7166018287</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="3" t="s">
+      <c r="C48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="J48" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="5">
+      <c r="A49" s="4">
         <v>42918.733004525464</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G49" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="J49" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5">
+      <c r="A50" s="4">
         <v>42918.897814895834</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G50" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="J50" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="5">
+      <c r="A51" s="4">
         <v>42919.508194016205</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="3" t="s">
+      <c r="C51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G51" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="J51" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5">
+      <c r="A52" s="4">
         <v>42919.51402903935</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="3" t="s">
+      <c r="C52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="2">
         <v>26.0</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G52" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="2">
         <v>26.0</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="J52" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5">
+      <c r="A53" s="4">
         <v>42919.52421618055</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" s="3" t="s">
+      <c r="C53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G53" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H53" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="J53" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5">
+      <c r="A54" s="4">
         <v>42919.52572605324</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G54" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="H54" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="J54" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="5">
+      <c r="A55" s="4">
         <v>42919.77333631944</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="3" t="s">
+      <c r="C55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="G55" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="J55" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="5">
+      <c r="A56" s="4">
         <v>42919.77736952546</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="3" t="s">
+      <c r="C56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G56" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="H56" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="J56" s="3" t="s">
+      <c r="J56" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="5">
+      <c r="A57" s="4">
         <v>42919.78002392361</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="3" t="s">
+      <c r="C57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G57" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="H57" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="I57" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J57" s="3" t="s">
+      <c r="J57" s="2" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="5">
+      <c r="A58" s="4">
         <v>42921.43057802084</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="J58" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="5">
+      <c r="A59" s="4">
         <v>42921.431801238425</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F59" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="G59" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="H59" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="J59" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="5">
+      <c r="A60" s="4">
         <v>42921.43308928241</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F60" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G60" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="H60" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J60" s="3" t="s">
+      <c r="J60" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="5">
+      <c r="A61" s="4">
         <v>42921.434195486116</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F61" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G61" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="H61" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="J61" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="5">
+      <c r="A62" s="4">
         <v>42921.45357986111</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G62" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="H62" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="J62" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="5">
+      <c r="A63" s="4">
         <v>42921.45482979166</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F63" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G63" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="H63" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="J63" s="3" t="s">
+      <c r="J63" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="5">
+      <c r="A64" s="4">
         <v>42921.45576490741</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F64" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G64" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="H64" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="J64" s="3" t="s">
+      <c r="J64" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="5">
+      <c r="A65" s="4">
         <v>42921.45704947917</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F65" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="G65" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H65" s="3" t="s">
+      <c r="H65" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="J65" s="3" t="s">
+      <c r="J65" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="5">
+      <c r="A66" s="4">
         <v>42921.522544629624</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="G66" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="H66" s="2" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="5">
+      <c r="A67" s="4">
         <v>42921.52461478009</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="3" t="s">
+      <c r="C67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="G67" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="H67" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I67" s="3" t="s">
+      <c r="I67" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="J67" s="3" t="s">
+      <c r="J67" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="5">
+      <c r="A68" s="4">
         <v>42921.525993449075</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="G68" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="H68" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="J68" s="3" t="s">
+      <c r="J68" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="5">
+      <c r="A69" s="4">
         <v>42921.52823646991</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" s="3" t="s">
+      <c r="C69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G69" s="3" t="s">
+      <c r="G69" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H69" s="3" t="s">
+      <c r="H69" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="J69" s="3" t="s">
+      <c r="J69" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="5">
+      <c r="A70" s="4">
         <v>42921.532675636576</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G70" s="3" t="s">
+      <c r="G70" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H70" s="3" t="s">
+      <c r="H70" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="J70" s="3" t="s">
+      <c r="J70" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="5">
+      <c r="A71" s="4">
         <v>42921.5414537037</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" s="3" t="s">
+      <c r="C71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="G71" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H71" s="3" t="s">
+      <c r="H71" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="I71" s="3" t="s">
+      <c r="I71" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="J71" s="3" t="s">
+      <c r="J71" s="2" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="5">
+      <c r="A72" s="4">
         <v>42921.55143368056</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" s="3" t="s">
+      <c r="C72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="G72" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H72" s="3" t="s">
+      <c r="H72" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="I72" s="3" t="s">
+      <c r="I72" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="J72" s="3" t="s">
+      <c r="J72" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="5">
+      <c r="A73" s="4">
         <v>42922.38641954861</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D73" s="3" t="s">
+      <c r="C73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="2">
         <v>3.0</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="G73" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H73" s="3" t="s">
+      <c r="H73" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="J73" s="3" t="s">
+      <c r="J73" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="5">
+      <c r="A74" s="4">
         <v>42922.38804760417</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D74" s="3" t="s">
+      <c r="C74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F74" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="G74" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="H74" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="J74" s="3" t="s">
+      <c r="J74" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="5">
+      <c r="A75" s="4">
         <v>42922.38925461806</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" s="3" t="s">
+      <c r="C75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F75" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="G75" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="H75" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="J75" s="3" t="s">
+      <c r="J75" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="5">
+      <c r="A76" s="4">
         <v>42922.39028146991</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" s="3" t="s">
+      <c r="C76" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F76" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="G76" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H76" s="3" t="s">
+      <c r="H76" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="J76" s="3" t="s">
+      <c r="J76" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="5">
+      <c r="A77" s="4">
         <v>42922.391217129625</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="3" t="s">
+      <c r="C77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F77" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="G77" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H77" s="3" t="s">
+      <c r="H77" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="J77" s="3" t="s">
+      <c r="J77" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="5">
+      <c r="A78" s="4">
         <v>42922.46348233796</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D78" s="3" t="s">
+      <c r="C78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="G78" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H78" s="3" t="s">
+      <c r="H78" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="I78" s="3" t="s">
+      <c r="I78" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="J78" s="3" t="s">
+      <c r="J78" s="2" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="5">
+      <c r="A79" s="4">
         <v>42923.48590679398</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D79" s="3" t="s">
+      <c r="C79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="G79" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="H79" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="I79" s="3" t="s">
+      <c r="I79" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="J79" s="3" t="s">
+      <c r="J79" s="2" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="5">
+      <c r="A80" s="4">
         <v>42925.55127611111</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D80" s="3" t="s">
+      <c r="C80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F80" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="G80" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="H80" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="J80" s="3" t="s">
+      <c r="J80" s="2" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="5">
+      <c r="A81" s="4">
         <v>42925.55502168981</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D81" s="3" t="s">
+      <c r="C81" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F81" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="G81" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="H81" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="J81" s="3" t="s">
+      <c r="J81" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="5">
+      <c r="A82" s="4">
         <v>42925.55793041667</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D82" s="3" t="s">
+      <c r="C82" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="F82" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="G82" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H82" s="3" t="s">
+      <c r="H82" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="J82" s="3" t="s">
+      <c r="J82" s="2" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="5">
+      <c r="A83" s="4">
         <v>42925.5594030787</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D83" s="3" t="s">
+      <c r="C83" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F83" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="G83" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="H83" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="J83" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="5">
+      <c r="A84" s="4">
         <v>42925.56797523148</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D84" s="3" t="s">
+      <c r="C84" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E84" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F84" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="G84" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H84" s="3" t="s">
+      <c r="H84" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="J84" s="3" t="s">
+      <c r="J84" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="5">
+      <c r="A85" s="4">
         <v>42925.571550636574</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D85" s="3" t="s">
+      <c r="C85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="F85" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="G85" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="H85" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="J85" s="3" t="s">
+      <c r="J85" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="5">
+      <c r="A86" s="4">
         <v>42929.57537424768</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D86" s="3" t="s">
+      <c r="C86" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F86" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="G86" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="H86" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="J86" s="3" t="s">
+      <c r="J86" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="5">
+      <c r="A87" s="4">
         <v>42929.578168101856</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D87" s="3" t="s">
+      <c r="C87" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="F87" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="G87" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H87" s="3" t="s">
+      <c r="H87" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="J87" s="3" t="s">
+      <c r="J87" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="5">
+      <c r="A88" s="4">
         <v>42929.58033596065</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D88" s="3" t="s">
+      <c r="C88" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="F88" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="G88" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H88" s="3" t="s">
+      <c r="H88" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="J88" s="3" t="s">
+      <c r="J88" s="2" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="5">
+      <c r="A89" s="4">
         <v>42929.587505081014</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D89" s="3" t="s">
+      <c r="C89" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="F89" s="3" t="s">
+      <c r="F89" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="G89" s="3" t="s">
+      <c r="G89" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H89" s="3" t="s">
+      <c r="H89" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="J89" s="3" t="s">
+      <c r="J89" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="5">
+      <c r="A90" s="4">
         <v>42929.590731261575</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D90" s="3" t="s">
+      <c r="C90" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="F90" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="G90" s="3" t="s">
+      <c r="G90" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H90" s="3" t="s">
+      <c r="H90" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="J90" s="3" t="s">
+      <c r="J90" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="5">
+      <c r="A91" s="4">
         <v>42929.59265019676</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D91" s="3" t="s">
+      <c r="C91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="F91" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G91" s="3" t="s">
+      <c r="G91" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H91" s="3" t="s">
+      <c r="H91" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="J91" s="3" t="s">
+      <c r="J91" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="5">
+      <c r="A92" s="4">
         <v>42929.59469025463</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D92" s="3" t="s">
+      <c r="C92" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="F92" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G92" s="3" t="s">
+      <c r="G92" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H92" s="3" t="s">
+      <c r="H92" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="I92" s="3" t="s">
+      <c r="I92" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="J92" s="3" t="s">
+      <c r="J92" s="2" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="5">
+      <c r="A93" s="4">
         <v>42929.603072812504</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D93" s="3" t="s">
+      <c r="C93" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E93" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F93" s="3" t="s">
+      <c r="F93" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="G93" s="3" t="s">
+      <c r="G93" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H93" s="3" t="s">
+      <c r="H93" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="J93" s="3" t="s">
+      <c r="J93" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="5">
+      <c r="A94" s="4">
         <v>42932.49347619213</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D94" s="3" t="s">
+      <c r="C94" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G94" s="3" t="s">
+      <c r="G94" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H94" s="3" t="s">
+      <c r="H94" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="J94" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="5">
+      <c r="A95" s="4">
         <v>42932.51005224537</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D95" s="3" t="s">
+      <c r="C95" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="G95" s="3" t="s">
+      <c r="G95" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H95" s="3" t="s">
+      <c r="H95" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="J95" s="3" t="s">
+      <c r="J95" s="2" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="5">
+      <c r="A96" s="4">
         <v>42933.95918174769</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E96" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="G96" s="3" t="s">
+      <c r="G96" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H96" s="3" t="s">
+      <c r="H96" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="J96" s="3" t="s">
+      <c r="J96" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="5">
+      <c r="A97" s="4">
         <v>42936.70047575231</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D97" s="3" t="s">
+      <c r="C97" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E97" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G97" s="3" t="s">
+      <c r="G97" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H97" s="3" t="s">
+      <c r="H97" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="J97" s="3" t="s">
+      <c r="J97" s="2" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="5">
+      <c r="A98" s="4">
         <v>42936.70506116898</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D98" s="3" t="s">
+      <c r="C98" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E98" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="F98" s="3" t="s">
+      <c r="F98" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="G98" s="3" t="s">
+      <c r="G98" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H98" s="3" t="s">
+      <c r="H98" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="J98" s="3" t="s">
+      <c r="J98" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="5">
+      <c r="A99" s="4">
         <v>42936.71020366898</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C99" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D99" s="3" t="s">
+      <c r="C99" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E99" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F99" s="3" t="s">
+      <c r="F99" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="G99" s="3" t="s">
+      <c r="G99" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H99" s="3" t="s">
+      <c r="H99" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="J99" s="3" t="s">
+      <c r="J99" s="2" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="5">
+      <c r="A100" s="4">
         <v>42936.97844741898</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D100" s="3" t="s">
+      <c r="C100" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E100" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="G100" s="3" t="s">
+      <c r="G100" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H100" s="3" t="s">
+      <c r="H100" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="J100" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="5">
+      <c r="A101" s="4">
         <v>42937.00257722222</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D101" s="3" t="s">
+      <c r="C101" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E101" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="G101" s="3" t="s">
+      <c r="G101" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H101" s="3" t="s">
+      <c r="H101" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="I101" s="3" t="s">
+      <c r="I101" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="J101" s="2" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="5">
+      <c r="A102" s="4">
         <v>42937.02205590278</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D102" s="3" t="s">
+      <c r="C102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E102" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="G102" s="3" t="s">
+      <c r="G102" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H102" s="3" t="s">
+      <c r="H102" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="J102" s="3" t="s">
+      <c r="J102" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="5">
+      <c r="A103" s="4">
         <v>42937.04366130787</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D103" s="3" t="s">
+      <c r="C103" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E103" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G103" s="3" t="s">
+      <c r="G103" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H103" s="3" t="s">
+      <c r="H103" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="J103" s="3" t="s">
+      <c r="J103" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="5">
+      <c r="A104" s="4">
         <v>42937.06504858796</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E104" s="3" t="s">
+      <c r="C104" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="G104" s="3" t="s">
+      <c r="G104" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H104" s="3" t="s">
+      <c r="H104" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="J104" s="3" t="s">
+      <c r="J104" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="5">
+      <c r="A105" s="4">
         <v>42937.07417912037</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D105" s="3" t="s">
+      <c r="C105" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="E105" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="G105" s="3" t="s">
+      <c r="G105" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H105" s="3" t="s">
+      <c r="H105" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="I105" s="3" t="s">
+      <c r="I105" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="J105" s="3" t="s">
+      <c r="J105" s="2" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="5">
+      <c r="A106" s="4">
         <v>42937.47118298611</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D106" s="3" t="s">
+      <c r="C106" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E106" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="F106" s="3" t="s">
+      <c r="F106" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="G106" s="3" t="s">
+      <c r="G106" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H106" s="3" t="s">
+      <c r="H106" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="J106" s="3" t="s">
+      <c r="J106" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="5">
+      <c r="A107" s="4">
         <v>42937.47297387732</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D107" s="3" t="s">
+      <c r="C107" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="E107" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F107" s="3" t="s">
+      <c r="F107" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="G107" s="3" t="s">
+      <c r="G107" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H107" s="3" t="s">
+      <c r="H107" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="I107" s="3" t="s">
+      <c r="I107" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="J107" s="3" t="s">
+      <c r="J107" s="2" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="5">
+      <c r="A108" s="4">
         <v>42937.475681192125</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C108" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D108" s="3" t="s">
+      <c r="C108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E108" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F108" s="3" t="s">
+      <c r="F108" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="G108" s="3" t="s">
+      <c r="G108" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H108" s="3" t="s">
+      <c r="H108" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="I108" s="3" t="s">
+      <c r="I108" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="J108" s="3" t="s">
+      <c r="J108" s="2" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="5">
+      <c r="A109" s="4">
         <v>42937.47946293982</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D109" s="3" t="s">
+      <c r="C109" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="F109" s="3" t="s">
+      <c r="F109" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="G109" s="3" t="s">
+      <c r="G109" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H109" s="3" t="s">
+      <c r="H109" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="I109" s="3" t="s">
+      <c r="I109" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="J109" s="3" t="s">
+      <c r="J109" s="2" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="5">
+      <c r="A110" s="4">
         <v>42937.48236579861</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D110" s="3" t="s">
+      <c r="C110" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E110" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="F110" s="3" t="s">
+      <c r="F110" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="G110" s="3" t="s">
+      <c r="G110" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H110" s="3" t="s">
+      <c r="H110" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="I110" s="3" t="s">
+      <c r="I110" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="J110" s="3" t="s">
+      <c r="J110" s="2" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="5">
+      <c r="A111" s="4">
         <v>42937.50903104167</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C111" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D111" s="3" t="s">
+      <c r="C111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="E111" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F111" s="3" t="s">
+      <c r="F111" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="G111" s="3" t="s">
+      <c r="G111" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H111" s="3" t="s">
+      <c r="H111" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="I111" s="3" t="s">
+      <c r="I111" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="J111" s="3" t="s">
+      <c r="J111" s="2" t="s">
         <v>340</v>
       </c>
     </row>
@@ -7782,888 +7813,928 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="5">
+      <c r="A113" s="4">
         <v>42937.568410486114</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C113" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D113" s="3" t="s">
+      <c r="C113" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="G113" s="3" t="s">
+      <c r="G113" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H113" s="3" t="s">
+      <c r="H113" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="I113" s="3" t="s">
+      <c r="I113" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J113" s="3" t="s">
+      <c r="J113" s="2" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="5">
+      <c r="A114" s="4">
         <v>42937.56913960648</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C114" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D114" s="3" t="s">
+      <c r="C114" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E114" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="G114" s="3" t="s">
+      <c r="G114" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H114" s="3" t="s">
+      <c r="H114" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="I114" s="3" t="s">
+      <c r="I114" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="J114" s="3" t="s">
+      <c r="J114" s="2" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="5">
+      <c r="A115" s="4">
         <v>42937.57056344907</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C115" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D115" s="3" t="s">
+      <c r="C115" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E115" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="G115" s="3" t="s">
+      <c r="G115" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H115" s="3" t="s">
+      <c r="H115" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="I115" s="3" t="s">
+      <c r="I115" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="J115" s="3" t="s">
+      <c r="J115" s="2" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="5">
+      <c r="A116" s="4">
         <v>42937.5716206713</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C116" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D116" s="3" t="s">
+      <c r="C116" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E116" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="G116" s="3" t="s">
+      <c r="G116" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H116" s="3" t="s">
+      <c r="H116" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="J116" s="3" t="s">
+      <c r="J116" s="2" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="5">
+      <c r="A117" s="4">
         <v>42937.573803796295</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D117" s="3" t="s">
+      <c r="C117" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E117" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="G117" s="3" t="s">
+      <c r="G117" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H117" s="3" t="s">
+      <c r="H117" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="J117" s="3" t="s">
+      <c r="J117" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="5">
+      <c r="A118" s="4">
         <v>42937.59068775463</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C118" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D118" s="3" t="s">
+      <c r="C118" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E118" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="G118" s="3" t="s">
+      <c r="G118" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H118" s="3" t="s">
+      <c r="H118" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="I118" s="3" t="s">
+      <c r="I118" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="J118" s="3" t="s">
+      <c r="J118" s="2" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="5">
+      <c r="A119" s="4">
         <v>42937.63493046296</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D119" s="3" t="s">
+      <c r="C119" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="E119" s="2" t="s">
         <v>364</v>
       </c>
       <c r="F119" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="G119" s="3" t="s">
+      <c r="G119" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H119" s="3" t="s">
+      <c r="H119" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="J119" s="3" t="s">
+      <c r="J119" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="5">
+      <c r="A120" s="4">
         <v>42937.635954756945</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C120" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D120" s="3" t="s">
+      <c r="C120" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E120" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="G120" s="3" t="s">
+      <c r="G120" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H120" s="3" t="s">
+      <c r="H120" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="J120" s="3" t="s">
+      <c r="J120" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="5">
+      <c r="A121" s="4">
         <v>42937.63800497685</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C121" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D121" s="3" t="s">
+      <c r="C121" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E121" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="G121" s="3" t="s">
+      <c r="G121" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H121" s="3" t="s">
+      <c r="H121" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="J121" s="3" t="s">
+      <c r="J121" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="5">
+      <c r="A122" s="4">
         <v>42937.63861472222</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C122" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D122" s="3" t="s">
+      <c r="C122" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E122" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="G122" s="3" t="s">
+      <c r="G122" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H122" s="3" t="s">
+      <c r="H122" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="J122" s="3" t="s">
+      <c r="J122" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="5">
+      <c r="A123" s="4">
         <v>42944.510296203705</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D123" s="3" t="s">
+      <c r="C123" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="E123" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="G123" s="3" t="s">
+      <c r="G123" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H123" s="3" t="s">
+      <c r="H123" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="I123" s="3" t="s">
+      <c r="I123" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="J123" s="3" t="s">
+      <c r="J123" s="2" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="5">
+      <c r="A124" s="4">
         <v>42944.521929282404</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C124" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D124" s="3" t="s">
+      <c r="C124" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="E124" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="G124" s="3" t="s">
+      <c r="G124" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H124" s="3" t="s">
+      <c r="H124" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="J124" s="3" t="s">
+      <c r="J124" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="5">
+      <c r="A125" s="4">
         <v>42944.529158391204</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D125" s="3" t="s">
+      <c r="C125" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="E125" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="F125" s="3" t="s">
+      <c r="F125" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G125" s="3" t="s">
+      <c r="G125" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H125" s="3" t="s">
+      <c r="H125" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="J125" s="3" t="s">
+      <c r="J125" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="5">
+      <c r="A126" s="4">
         <v>42944.89083329861</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C126" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D126" s="3" t="s">
+      <c r="C126" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="E126" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="G126" s="3" t="s">
+      <c r="G126" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H126" s="3" t="s">
+      <c r="H126" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="J126" s="3" t="s">
+      <c r="J126" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="5">
+      <c r="A127" s="4">
         <v>42944.899877800926</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C127" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D127" s="3" t="s">
+      <c r="C127" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="E127" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="F127" s="3" t="s">
+      <c r="F127" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="G127" s="3" t="s">
+      <c r="G127" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H127" s="3" t="s">
+      <c r="H127" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="J127" s="3" t="s">
+      <c r="J127" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="5">
+      <c r="A128" s="4">
         <v>42944.923038865745</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D128" s="3" t="s">
+      <c r="C128" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="E128" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F128" s="3" t="s">
+      <c r="F128" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G128" s="3" t="s">
+      <c r="G128" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H128" s="3" t="s">
+      <c r="H128" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="J128" s="3" t="s">
+      <c r="J128" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="5">
+      <c r="A129" s="4">
         <v>42944.93386106481</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C129" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D129" s="3" t="s">
+      <c r="C129" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E129" s="3" t="s">
+      <c r="E129" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="F129" s="3" t="s">
+      <c r="F129" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G129" s="3" t="s">
+      <c r="G129" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H129" s="3" t="s">
+      <c r="H129" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="J129" s="3" t="s">
+      <c r="J129" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="5">
+      <c r="A130" s="4">
         <v>42945.476367696756</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C130" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D130" s="3" t="s">
+      <c r="C130" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E130" s="3" t="s">
+      <c r="E130" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="F130" s="3" t="s">
+      <c r="F130" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="G130" s="3" t="s">
+      <c r="G130" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H130" s="3" t="s">
+      <c r="H130" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="J130" s="3" t="s">
+      <c r="J130" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="5">
+      <c r="A131" s="4">
         <v>42945.49787871528</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C131" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D131" s="3" t="s">
+      <c r="C131" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E131" s="3" t="s">
+      <c r="E131" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="G131" s="3" t="s">
+      <c r="G131" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H131" s="3" t="s">
+      <c r="H131" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="J131" s="3" t="s">
+      <c r="J131" s="2" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="5">
+      <c r="A132" s="4">
         <v>42945.50709912037</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C132" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D132" s="3" t="s">
+      <c r="C132" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E132" s="3" t="s">
+      <c r="E132" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="F132" s="3" t="s">
+      <c r="F132" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G132" s="3" t="s">
+      <c r="G132" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H132" s="3" t="s">
+      <c r="H132" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="J132" s="3" t="s">
+      <c r="J132" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="5">
+      <c r="A133" s="4">
         <v>42945.515521064815</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C133" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D133" s="3" t="s">
+      <c r="C133" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E133" s="3" t="s">
+      <c r="E133" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="F133" s="3" t="s">
+      <c r="F133" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G133" s="3" t="s">
+      <c r="G133" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H133" s="3" t="s">
+      <c r="H133" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="J133" s="3" t="s">
+      <c r="J133" s="2" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="5">
+      <c r="A134" s="4">
         <v>42946.5596377662</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C134" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D134" s="3" t="s">
+      <c r="C134" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E134" s="3" t="s">
+      <c r="E134" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F134" s="3" t="s">
+      <c r="F134" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="G134" s="3" t="s">
+      <c r="G134" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H134" s="3" t="s">
+      <c r="H134" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="J134" s="3" t="s">
+      <c r="J134" s="2" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="5">
+      <c r="A135" s="4">
         <v>42946.580422858795</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C135" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D135" s="3" t="s">
+      <c r="C135" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E135" s="3" t="s">
+      <c r="E135" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="G135" s="3" t="s">
+      <c r="G135" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H135" s="3" t="s">
+      <c r="H135" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="J135" s="3" t="s">
+      <c r="J135" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="5">
+      <c r="A136" s="4">
         <v>42946.59086497685</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C136" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D136" s="3" t="s">
+      <c r="C136" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="E136" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="F136" s="3" t="s">
+      <c r="F136" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="G136" s="3" t="s">
+      <c r="G136" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H136" s="3" t="s">
+      <c r="H136" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="J136" s="3" t="s">
+      <c r="J136" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="5">
+      <c r="A137" s="4">
         <v>42948.80905043981</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C137" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D137" s="3" t="s">
+      <c r="C137" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E137" s="3" t="s">
+      <c r="E137" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="F137" s="3" t="s">
+      <c r="F137" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="G137" s="3" t="s">
+      <c r="G137" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H137" s="3" t="s">
+      <c r="H137" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="J137" s="3" t="s">
+      <c r="J137" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="5">
+      <c r="A138" s="4">
         <v>42948.91070303241</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C138" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D138" s="3" t="s">
+      <c r="C138" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E138" s="3" t="s">
+      <c r="E138" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="F138" s="3" t="s">
+      <c r="F138" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="G138" s="3" t="s">
+      <c r="G138" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H138" s="3" t="s">
+      <c r="H138" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="J138" s="3" t="s">
+      <c r="J138" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="5">
+      <c r="A139" s="4">
         <v>42956.95053297454</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="D139" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="E139" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="F139" s="3" t="s">
+      <c r="F139" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G139" s="3" t="s">
+      <c r="G139" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H139" s="3" t="s">
+      <c r="H139" s="2" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="5">
+      <c r="A140" s="4">
         <v>42956.9550928588</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D140" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="E140" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="F140" s="3" t="s">
+      <c r="F140" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G140" s="3" t="s">
+      <c r="G140" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H140" s="3" t="s">
+      <c r="H140" s="2" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="5">
+      <c r="A141" s="4">
         <v>42956.969355312496</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="D141" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E141" s="3" t="s">
+      <c r="E141" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F141" s="3" t="s">
+      <c r="F141" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="G141" s="3" t="s">
+      <c r="G141" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H141" s="3" t="s">
+      <c r="H141" s="2" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="5">
+      <c r="A142" s="4">
         <v>42956.97423310185</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="D142" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E142" s="3" t="s">
+      <c r="E142" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="F142" s="3" t="s">
+      <c r="F142" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="G142" s="3" t="s">
+      <c r="G142" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H142" s="3" t="s">
+      <c r="H142" s="2" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="5">
+      <c r="A143" s="4">
         <v>42957.960962094905</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D143" s="3" t="s">
+      <c r="D143" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E143" s="3" t="s">
+      <c r="E143" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="G143" s="3" t="s">
+      <c r="G143" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H143" s="3" t="s">
+      <c r="H143" s="2" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="5">
+      <c r="A144" s="4">
         <v>42957.97365053241</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="D144" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E144" s="3" t="s">
+      <c r="E144" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="F144" s="3" t="s">
+      <c r="F144" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="G144" s="3" t="s">
+      <c r="G144" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H144" s="3" t="s">
+      <c r="H144" s="2" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="5">
+      <c r="A145" s="4">
         <v>42957.996313587966</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="D145" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E145" s="3" t="s">
+      <c r="E145" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="F145" s="3" t="s">
+      <c r="F145" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="G145" s="3" t="s">
+      <c r="G145" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H145" s="3" t="s">
+      <c r="H145" s="2" t="s">
         <v>430</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="4">
+        <v>43301.48379916667</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="4">
+        <v>43301.48462787037</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -8703,48 +8774,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
